--- a/characters/data/Item Spreadsheet.xlsx
+++ b/characters/data/Item Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclassen\Documents\GitHub\kaleidorpg\characters\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B58FD-56DC-4049-B02C-651F4A32D313}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05E7BAF-78E3-40C6-8AE6-928BAC7BFF0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="0" windowWidth="17160" windowHeight="12390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11670" yWindow="0" windowWidth="17085" windowHeight="15525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armor" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="135">
   <si>
     <t>Armor Name</t>
   </si>
@@ -423,9 +423,6 @@
     <t>Pistol 20</t>
   </si>
   <si>
-    <t>IPF Expedition Rifle</t>
-  </si>
-  <si>
     <t>AstroStock Repeater</t>
   </si>
   <si>
@@ -439,6 +436,21 @@
   </si>
   <si>
     <t>Assault Weapon 20</t>
+  </si>
+  <si>
+    <t>AstroStock Sharpshooter</t>
+  </si>
+  <si>
+    <t>AstroStock Expedition Rifle</t>
+  </si>
+  <si>
+    <t>IPF Ranger Rifle</t>
+  </si>
+  <si>
+    <t>The Assassainator</t>
+  </si>
+  <si>
+    <t>Tripod Rifle</t>
   </si>
 </sst>
 </file>
@@ -824,7 +836,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1090,10 +1102,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1287,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>39</v>
@@ -1493,7 +1505,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
@@ -1519,7 +1531,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>32</v>
@@ -1545,16 +1557,16 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>85</v>
@@ -1567,6 +1579,39 @@
       </c>
       <c r="H15" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/characters/data/Item Spreadsheet.xlsx
+++ b/characters/data/Item Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclassen\Documents\GitHub\kaleidorpg\characters\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B6E2E0-0675-4622-8AA5-4F9A9B050AF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD2B039-B53F-4E31-A9E9-6988ABDDEEB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="30" windowWidth="17760" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armor" sheetId="1" r:id="rId1"/>
@@ -1613,7 +1613,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A2:A31"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
